--- a/vedois/alunos (importar)/Optativas_3.xlsx
+++ b/vedois/alunos (importar)/Optativas_3.xlsx
@@ -431,7 +431,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Optativas 0 3</t>
+          <t>Optativas 3</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Segunda M 07:00 - 07:55</t>
+          <t>Quinta M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -463,7 +463,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Segunda M 07:55 - 08:50</t>
+          <t>Quinta M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Segunda M 08:50 - 09:45</t>
+          <t>Quinta M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -487,7 +487,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Segunda M 10:10 - 11:00</t>
+          <t>Quinta M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -499,7 +499,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Segunda T 13:30 - 14:25</t>
+          <t>Segunda M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Segunda T 14:25 - 15:20</t>
+          <t>Segunda M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -523,7 +523,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Segunda T 15:45 - 16:40</t>
+          <t>Segunda M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -535,7 +535,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Segunda T 16:40 - 17:35</t>
+          <t>Segunda M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -547,7 +547,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Terça M 07:00 - 07:55</t>
+          <t>Sexta M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -559,7 +559,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Terça M 07:55 - 08:50</t>
+          <t>Sexta M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Terça M 08:50 - 09:45</t>
+          <t>Sexta M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Terça M 10:10 - 11:00</t>
+          <t>Sexta M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
